--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed4/result_data_KNN.xlsx
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.548</v>
+        <v>5.815</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -614,7 +614,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>5.465999999999999</v>
+        <v>5.556</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.566000000000001</v>
+        <v>4.871</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.516</v>
+        <v>5.255999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.686</v>
+        <v>6.862</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.5</v>
+        <v>5.897</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.42</v>
+        <v>5.752000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.548</v>
+        <v>5.633</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.475999999999999</v>
+        <v>8.301</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>7.952000000000001</v>
+        <v>8.079000000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.97</v>
+        <v>5.516</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.124000000000001</v>
+        <v>4.813</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>5.233000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.292</v>
+        <v>5.128</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.544999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.475999999999999</v>
+        <v>8.221</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.098</v>
+        <v>5.456999999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.996</v>
+        <v>5.88</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.061999999999999</v>
+        <v>4.896000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.022</v>
+        <v>4.86</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
